--- a/Cloudenum.FileDetective.Test/TestSubjects/Test.xlsx
+++ b/Cloudenum.FileDetective.Test/TestSubjects/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Afiq\Cloudenum.FileDetective\Cloudenum.FileDetective.Test\TestSubjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9896C8AB-40CE-411B-86D0-23AB806424BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE7CCA2-9D44-41C3-AC9C-BE904A7E2457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1B8B242-67DB-4E09-94AC-223609465BCA}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D4A63-5DB8-4751-837E-B8A168169A35}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,6 +426,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
